--- a/app/src/test/java/com/fias/ddrhighspeed/model/ResultRowSetFactoryTest用データ作成シート.xlsx
+++ b/app/src/test/java/com/fias/ddrhighspeed/model/ResultRowSetFactoryTest用データ作成シート.xlsx
@@ -141,10 +141,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B84" activeCellId="0" sqref="B84"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -154,11 +154,12 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="8.69"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="35.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="74.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -167,604 +168,627 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
-        <v>0.25</v>
+      <c r="A3" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A3,0)</f>
-        <v>1600</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <f aca="false">ROUNDDOWN(B4+1,0)</f>
-        <v>801</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1" t="n">
         <f aca="false">A3*B3</f>
-        <v>400</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="n">
         <f aca="false">A3*C3</f>
-        <v>200.25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="4" t="str">
-        <f aca="false">"ResultRow("&amp;C3&amp;", "&amp;B3&amp;", "&amp;TEXT(A3,"0.00")&amp;","&amp;TEXT(E3,"0.00")&amp;","&amp;TEXT(D3,"0.00")&amp;"),"</f>
-        <v>ResultRow(801, 1600, 0.25,200.25,400.00),</v>
-      </c>
+        <f aca="false">"ResultRow("""&amp;B3&amp;" ～ "&amp;C3&amp;""", """&amp;TEXT(A3,"0.00")&amp;""","""&amp;TEXT(D3,"0.00")&amp;" ～ "&amp;TEXT(E3,"0.00")&amp;"""),"</f>
+        <v>ResultRow("1 ～ 3", "8.00","8.00 ～ 24.00"),</v>
+      </c>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
       <c r="B4" s="2" t="n">
+        <f aca="false">C3+1</f>
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A4,0)</f>
-        <v>800</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <f aca="false">ROUNDDOWN(B5+1,0)</f>
-        <v>534</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="n">
         <f aca="false">A4*B4</f>
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="n">
         <f aca="false">A4*C4</f>
-        <v>267</v>
+        <v>30</v>
       </c>
       <c r="F4" s="4" t="str">
-        <f aca="false">"ResultRow("&amp;C4&amp;", "&amp;B4&amp;", "&amp;TEXT(A4,"0.00")&amp;","&amp;TEXT(E4,"0.00")&amp;","&amp;TEXT(D4,"0.00")&amp;"),"</f>
-        <v>ResultRow(534, 800, 0.50,267.00,400.00),</v>
-      </c>
+        <f aca="false">"ResultRow("""&amp;B4&amp;" ～ "&amp;C4&amp;""", """&amp;TEXT(A4,"0.00")&amp;""","""&amp;TEXT(D4,"0.00")&amp;" ～ "&amp;TEXT(E4,"0.00")&amp;"""),"</f>
+        <v>ResultRow("4 ～ 4", "7.50","30.00 ～ 30.00"),</v>
+      </c>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>0.75</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="n">
+        <f aca="false">C4+1</f>
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A5,0)</f>
-        <v>533</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <f aca="false">ROUNDDOWN(B6+1,0)</f>
-        <v>401</v>
+        <v>4</v>
       </c>
       <c r="D5" s="1" t="n">
         <f aca="false">A5*B5</f>
-        <v>399.75</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1" t="n">
         <f aca="false">A5*C5</f>
-        <v>300.75</v>
+        <v>28</v>
       </c>
       <c r="F5" s="4" t="str">
-        <f aca="false">"ResultRow("&amp;C5&amp;", "&amp;B5&amp;", "&amp;TEXT(A5,"0.00")&amp;","&amp;TEXT(E5,"0.00")&amp;","&amp;TEXT(D5,"0.00")&amp;"),"</f>
-        <v>ResultRow(401, 533, 0.75,300.75,399.75),</v>
-      </c>
+        <f aca="false">"ResultRow("""&amp;B5&amp;" ～ "&amp;C5&amp;""", """&amp;TEXT(A5,"0.00")&amp;""","""&amp;TEXT(D5,"0.00")&amp;" ～ "&amp;TEXT(E5,"0.00")&amp;"""),"</f>
+        <v>ResultRow("5 ～ 4", "7.00","35.00 ～ 28.00"),</v>
+      </c>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="B6" s="2" t="n">
+        <f aca="false">C5+1</f>
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A6,0)</f>
-        <v>400</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <f aca="false">ROUNDDOWN(B7+1,0)</f>
-        <v>321</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="n">
         <f aca="false">A6*B6</f>
-        <v>400</v>
+        <v>32.5</v>
       </c>
       <c r="E6" s="1" t="n">
         <f aca="false">A6*C6</f>
-        <v>321</v>
+        <v>26</v>
       </c>
       <c r="F6" s="4" t="str">
-        <f aca="false">"ResultRow("&amp;C6&amp;", "&amp;B6&amp;", "&amp;TEXT(A6,"0.00")&amp;","&amp;TEXT(E6,"0.00")&amp;","&amp;TEXT(D6,"0.00")&amp;"),"</f>
-        <v>ResultRow(321, 400, 1.00,321.00,400.00),</v>
-      </c>
+        <f aca="false">"ResultRow("""&amp;B6&amp;" ～ "&amp;C6&amp;""", """&amp;TEXT(A6,"0.00")&amp;""","""&amp;TEXT(D6,"0.00")&amp;" ～ "&amp;TEXT(E6,"0.00")&amp;"""),"</f>
+        <v>ResultRow("5 ～ 4", "6.50","32.50 ～ 26.00"),</v>
+      </c>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>1.25</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
+        <f aca="false">C6+1</f>
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A7,0)</f>
-        <v>320</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <f aca="false">ROUNDDOWN(B8+1,0)</f>
-        <v>267</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="n">
         <f aca="false">A7*B7</f>
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="n">
         <f aca="false">A7*C7</f>
-        <v>333.75</v>
+        <v>30</v>
       </c>
       <c r="F7" s="4" t="str">
-        <f aca="false">"ResultRow("&amp;C7&amp;", "&amp;B7&amp;", "&amp;TEXT(A7,"0.00")&amp;","&amp;TEXT(E7,"0.00")&amp;","&amp;TEXT(D7,"0.00")&amp;"),"</f>
-        <v>ResultRow(267, 320, 1.25,333.75,400.00),</v>
-      </c>
+        <f aca="false">"ResultRow("""&amp;B7&amp;" ～ "&amp;C7&amp;""", """&amp;TEXT(A7,"0.00")&amp;""","""&amp;TEXT(D7,"0.00")&amp;" ～ "&amp;TEXT(E7,"0.00")&amp;"""),"</f>
+        <v>ResultRow("5 ～ 5", "6.00","30.00 ～ 30.00"),</v>
+      </c>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="B8" s="2" t="n">
+        <f aca="false">C7+1</f>
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A8,0)</f>
-        <v>266</v>
-      </c>
-      <c r="C8" s="3" t="n">
-        <f aca="false">ROUNDDOWN(B9+1,0)</f>
-        <v>229</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1" t="n">
         <f aca="false">A8*B8</f>
-        <v>399</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1" t="n">
         <f aca="false">A8*C8</f>
-        <v>343.5</v>
+        <v>27.5</v>
       </c>
       <c r="F8" s="4" t="str">
-        <f aca="false">"ResultRow("&amp;C8&amp;", "&amp;B8&amp;", "&amp;TEXT(A8,"0.00")&amp;","&amp;TEXT(E8,"0.00")&amp;","&amp;TEXT(D8,"0.00")&amp;"),"</f>
-        <v>ResultRow(229, 266, 1.50,343.50,399.00),</v>
-      </c>
+        <f aca="false">"ResultRow("""&amp;B8&amp;" ～ "&amp;C8&amp;""", """&amp;TEXT(A8,"0.00")&amp;""","""&amp;TEXT(D8,"0.00")&amp;" ～ "&amp;TEXT(E8,"0.00")&amp;"""),"</f>
+        <v>ResultRow("6 ～ 5", "5.50","33.00 ～ 27.50"),</v>
+      </c>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>1.75</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="n">
+        <f aca="false">C8+1</f>
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A9,0)</f>
-        <v>228</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <f aca="false">ROUNDDOWN(B10+1,0)</f>
-        <v>201</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="n">
         <f aca="false">A9*B9</f>
-        <v>399</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1" t="n">
         <f aca="false">A9*C9</f>
-        <v>351.75</v>
+        <v>30</v>
       </c>
       <c r="F9" s="4" t="str">
-        <f aca="false">"ResultRow("&amp;C9&amp;", "&amp;B9&amp;", "&amp;TEXT(A9,"0.00")&amp;","&amp;TEXT(E9,"0.00")&amp;","&amp;TEXT(D9,"0.00")&amp;"),"</f>
-        <v>ResultRow(201, 228, 1.75,351.75,399.00),</v>
-      </c>
+        <f aca="false">"ResultRow("""&amp;B9&amp;" ～ "&amp;C9&amp;""", """&amp;TEXT(A9,"0.00")&amp;""","""&amp;TEXT(D9,"0.00")&amp;" ～ "&amp;TEXT(E9,"0.00")&amp;"""),"</f>
+        <v>ResultRow("6 ～ 6", "5.00","30.00 ～ 30.00"),</v>
+      </c>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="B10" s="2" t="n">
+        <f aca="false">C9+1</f>
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A10,0)</f>
-        <v>200</v>
-      </c>
-      <c r="C10" s="3" t="n">
-        <f aca="false">ROUNDDOWN(B11+1,0)</f>
-        <v>178</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="n">
         <f aca="false">A10*B10</f>
-        <v>400</v>
+        <v>31.5</v>
       </c>
       <c r="E10" s="1" t="n">
         <f aca="false">A10*C10</f>
-        <v>356</v>
+        <v>27</v>
       </c>
       <c r="F10" s="4" t="str">
-        <f aca="false">"ResultRow("&amp;C10&amp;", "&amp;B10&amp;", "&amp;TEXT(A10,"0.00")&amp;","&amp;TEXT(E10,"0.00")&amp;","&amp;TEXT(D10,"0.00")&amp;"),"</f>
-        <v>ResultRow(178, 200, 2.00,356.00,400.00),</v>
-      </c>
+        <f aca="false">"ResultRow("""&amp;B10&amp;" ～ "&amp;C10&amp;""", """&amp;TEXT(A10,"0.00")&amp;""","""&amp;TEXT(D10,"0.00")&amp;" ～ "&amp;TEXT(E10,"0.00")&amp;"""),"</f>
+        <v>ResultRow("7 ～ 6", "4.50","31.50 ～ 27.00"),</v>
+      </c>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2" t="n">
+        <f aca="false">C10+1</f>
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A11,0)</f>
-        <v>177</v>
-      </c>
-      <c r="C11" s="3" t="n">
-        <f aca="false">ROUNDDOWN(B12+1,0)</f>
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="n">
         <f aca="false">A11*B11</f>
-        <v>398.25</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="n">
         <f aca="false">A11*C11</f>
-        <v>362.25</v>
+        <v>28</v>
       </c>
       <c r="F11" s="4" t="str">
-        <f aca="false">"ResultRow("&amp;C11&amp;", "&amp;B11&amp;", "&amp;TEXT(A11,"0.00")&amp;","&amp;TEXT(E11,"0.00")&amp;","&amp;TEXT(D11,"0.00")&amp;"),"</f>
-        <v>ResultRow(161, 177, 2.25,362.25,398.25),</v>
-      </c>
+        <f aca="false">"ResultRow("""&amp;B11&amp;" ～ "&amp;C11&amp;""", """&amp;TEXT(A11,"0.00")&amp;""","""&amp;TEXT(D11,"0.00")&amp;" ～ "&amp;TEXT(E11,"0.00")&amp;"""),"</f>
+        <v>ResultRow("7 ～ 7", "4.00","28.00 ～ 28.00"),</v>
+      </c>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="B12" s="2" t="n">
+        <f aca="false">C11+1</f>
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A12,0)</f>
-        <v>160</v>
-      </c>
-      <c r="C12" s="3" t="n">
-        <f aca="false">ROUNDDOWN(B13+1,0)</f>
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1" t="n">
         <f aca="false">A12*B12</f>
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1" t="n">
         <f aca="false">A12*C12</f>
-        <v>365</v>
+        <v>30</v>
       </c>
       <c r="F12" s="4" t="str">
-        <f aca="false">"ResultRow("&amp;C12&amp;", "&amp;B12&amp;", "&amp;TEXT(A12,"0.00")&amp;","&amp;TEXT(E12,"0.00")&amp;","&amp;TEXT(D12,"0.00")&amp;"),"</f>
-        <v>ResultRow(146, 160, 2.50,365.00,400.00),</v>
-      </c>
+        <f aca="false">"ResultRow("""&amp;B12&amp;" ～ "&amp;C12&amp;""", """&amp;TEXT(A12,"0.00")&amp;""","""&amp;TEXT(D12,"0.00")&amp;" ～ "&amp;TEXT(E12,"0.00")&amp;"""),"</f>
+        <v>ResultRow("8 ～ 8", "3.75","30.00 ～ 30.00"),</v>
+      </c>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="B13" s="2" t="n">
+        <f aca="false">C12+1</f>
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A13,0)</f>
-        <v>145</v>
-      </c>
-      <c r="C13" s="3" t="n">
-        <f aca="false">ROUNDDOWN(B14+1,0)</f>
-        <v>134</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1" t="n">
         <f aca="false">A13*B13</f>
-        <v>398.75</v>
+        <v>31.5</v>
       </c>
       <c r="E13" s="1" t="n">
         <f aca="false">A13*C13</f>
-        <v>368.5</v>
+        <v>28</v>
       </c>
       <c r="F13" s="4" t="str">
-        <f aca="false">"ResultRow("&amp;C13&amp;", "&amp;B13&amp;", "&amp;TEXT(A13,"0.00")&amp;","&amp;TEXT(E13,"0.00")&amp;","&amp;TEXT(D13,"0.00")&amp;"),"</f>
-        <v>ResultRow(134, 145, 2.75,368.50,398.75),</v>
-      </c>
+        <f aca="false">"ResultRow("""&amp;B13&amp;" ～ "&amp;C13&amp;""", """&amp;TEXT(A13,"0.00")&amp;""","""&amp;TEXT(D13,"0.00")&amp;" ～ "&amp;TEXT(E13,"0.00")&amp;"""),"</f>
+        <v>ResultRow("9 ～ 8", "3.50","31.50 ～ 28.00"),</v>
+      </c>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="B14" s="2" t="n">
+        <f aca="false">C13+1</f>
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A14,0)</f>
-        <v>133</v>
-      </c>
-      <c r="C14" s="3" t="n">
-        <f aca="false">ROUNDDOWN(B15+1,0)</f>
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1" t="n">
         <f aca="false">A14*B14</f>
-        <v>399</v>
+        <v>29.25</v>
       </c>
       <c r="E14" s="1" t="n">
         <f aca="false">A14*C14</f>
-        <v>372</v>
+        <v>29.25</v>
       </c>
       <c r="F14" s="4" t="str">
-        <f aca="false">"ResultRow("&amp;C14&amp;", "&amp;B14&amp;", "&amp;TEXT(A14,"0.00")&amp;","&amp;TEXT(E14,"0.00")&amp;","&amp;TEXT(D14,"0.00")&amp;"),"</f>
-        <v>ResultRow(124, 133, 3.00,372.00,399.00),</v>
-      </c>
+        <f aca="false">"ResultRow("""&amp;B14&amp;" ～ "&amp;C14&amp;""", """&amp;TEXT(A14,"0.00")&amp;""","""&amp;TEXT(D14,"0.00")&amp;" ～ "&amp;TEXT(E14,"0.00")&amp;"""),"</f>
+        <v>ResultRow("9 ～ 9", "3.25","29.25 ～ 29.25"),</v>
+      </c>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="B15" s="2" t="n">
+        <f aca="false">C14+1</f>
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A15,0)</f>
-        <v>123</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <f aca="false">ROUNDDOWN(B16+1,0)</f>
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1" t="n">
         <f aca="false">A15*B15</f>
-        <v>399.75</v>
+        <v>30</v>
       </c>
       <c r="E15" s="1" t="n">
         <f aca="false">A15*C15</f>
-        <v>373.75</v>
+        <v>30</v>
       </c>
       <c r="F15" s="4" t="str">
-        <f aca="false">"ResultRow("&amp;C15&amp;", "&amp;B15&amp;", "&amp;TEXT(A15,"0.00")&amp;","&amp;TEXT(E15,"0.00")&amp;","&amp;TEXT(D15,"0.00")&amp;"),"</f>
-        <v>ResultRow(115, 123, 3.25,373.75,399.75),</v>
-      </c>
+        <f aca="false">"ResultRow("""&amp;B15&amp;" ～ "&amp;C15&amp;""", """&amp;TEXT(A15,"0.00")&amp;""","""&amp;TEXT(D15,"0.00")&amp;" ～ "&amp;TEXT(E15,"0.00")&amp;"""),"</f>
+        <v>ResultRow("10 ～ 10", "3.00","30.00 ～ 30.00"),</v>
+      </c>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="B16" s="2" t="n">
+        <f aca="false">C15+1</f>
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A16,0)</f>
-        <v>114</v>
-      </c>
-      <c r="C16" s="3" t="n">
-        <f aca="false">ROUNDDOWN(B17+1,0)</f>
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="n">
         <f aca="false">A16*B16</f>
-        <v>399</v>
+        <v>30.25</v>
       </c>
       <c r="E16" s="1" t="n">
         <f aca="false">A16*C16</f>
-        <v>374.5</v>
+        <v>27.5</v>
       </c>
       <c r="F16" s="4" t="str">
-        <f aca="false">"ResultRow("&amp;C16&amp;", "&amp;B16&amp;", "&amp;TEXT(A16,"0.00")&amp;","&amp;TEXT(E16,"0.00")&amp;","&amp;TEXT(D16,"0.00")&amp;"),"</f>
-        <v>ResultRow(107, 114, 3.50,374.50,399.00),</v>
-      </c>
+        <f aca="false">"ResultRow("""&amp;B16&amp;" ～ "&amp;C16&amp;""", """&amp;TEXT(A16,"0.00")&amp;""","""&amp;TEXT(D16,"0.00")&amp;" ～ "&amp;TEXT(E16,"0.00")&amp;"""),"</f>
+        <v>ResultRow("11 ～ 10", "2.75","30.25 ～ 27.50"),</v>
+      </c>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="B17" s="2" t="n">
+        <f aca="false">C16+1</f>
+        <v>11</v>
+      </c>
+      <c r="C17" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A17,0)</f>
-        <v>106</v>
-      </c>
-      <c r="C17" s="3" t="n">
-        <f aca="false">ROUNDDOWN(B18+1,0)</f>
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1" t="n">
         <f aca="false">A17*B17</f>
-        <v>397.5</v>
+        <v>27.5</v>
       </c>
       <c r="E17" s="1" t="n">
         <f aca="false">A17*C17</f>
-        <v>378.75</v>
+        <v>30</v>
       </c>
       <c r="F17" s="4" t="str">
-        <f aca="false">"ResultRow("&amp;C17&amp;", "&amp;B17&amp;", "&amp;TEXT(A17,"0.00")&amp;","&amp;TEXT(E17,"0.00")&amp;","&amp;TEXT(D17,"0.00")&amp;"),"</f>
-        <v>ResultRow(101, 106, 3.75,378.75,397.50),</v>
-      </c>
+        <f aca="false">"ResultRow("""&amp;B17&amp;" ～ "&amp;C17&amp;""", """&amp;TEXT(A17,"0.00")&amp;""","""&amp;TEXT(D17,"0.00")&amp;" ～ "&amp;TEXT(E17,"0.00")&amp;"""),"</f>
+        <v>ResultRow("11 ～ 12", "2.50","27.50 ～ 30.00"),</v>
+      </c>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="B18" s="2" t="n">
+        <f aca="false">C17+1</f>
+        <v>13</v>
+      </c>
+      <c r="C18" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A18,0)</f>
-        <v>100</v>
-      </c>
-      <c r="C18" s="3" t="n">
-        <f aca="false">ROUNDDOWN(B19+1,0)</f>
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1" t="n">
         <f aca="false">A18*B18</f>
-        <v>400</v>
+        <v>29.25</v>
       </c>
       <c r="E18" s="1" t="n">
         <f aca="false">A18*C18</f>
-        <v>356</v>
+        <v>29.25</v>
       </c>
       <c r="F18" s="4" t="str">
-        <f aca="false">"ResultRow("&amp;C18&amp;", "&amp;B18&amp;", "&amp;TEXT(A18,"0.00")&amp;","&amp;TEXT(E18,"0.00")&amp;","&amp;TEXT(D18,"0.00")&amp;"),"</f>
-        <v>ResultRow(89, 100, 4.00,356.00,400.00),</v>
-      </c>
+        <f aca="false">"ResultRow("""&amp;B18&amp;" ～ "&amp;C18&amp;""", """&amp;TEXT(A18,"0.00")&amp;""","""&amp;TEXT(D18,"0.00")&amp;" ～ "&amp;TEXT(E18,"0.00")&amp;"""),"</f>
+        <v>ResultRow("13 ～ 13", "2.25","29.25 ～ 29.25"),</v>
+      </c>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="B19" s="2" t="n">
+        <f aca="false">C18+1</f>
+        <v>14</v>
+      </c>
+      <c r="C19" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A19,0)</f>
-        <v>88</v>
-      </c>
-      <c r="C19" s="3" t="n">
-        <f aca="false">ROUNDDOWN(B20+1,0)</f>
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1" t="n">
         <f aca="false">A19*B19</f>
-        <v>396</v>
+        <v>28</v>
       </c>
       <c r="E19" s="1" t="n">
         <f aca="false">A19*C19</f>
-        <v>364.5</v>
+        <v>30</v>
       </c>
       <c r="F19" s="4" t="str">
-        <f aca="false">"ResultRow("&amp;C19&amp;", "&amp;B19&amp;", "&amp;TEXT(A19,"0.00")&amp;","&amp;TEXT(E19,"0.00")&amp;","&amp;TEXT(D19,"0.00")&amp;"),"</f>
-        <v>ResultRow(81, 88, 4.50,364.50,396.00),</v>
-      </c>
+        <f aca="false">"ResultRow("""&amp;B19&amp;" ～ "&amp;C19&amp;""", """&amp;TEXT(A19,"0.00")&amp;""","""&amp;TEXT(D19,"0.00")&amp;" ～ "&amp;TEXT(E19,"0.00")&amp;"""),"</f>
+        <v>ResultRow("14 ～ 15", "2.00","28.00 ～ 30.00"),</v>
+      </c>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>5</v>
+        <v>1.75</v>
       </c>
       <c r="B20" s="2" t="n">
+        <f aca="false">C19+1</f>
+        <v>16</v>
+      </c>
+      <c r="C20" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A20,0)</f>
-        <v>80</v>
-      </c>
-      <c r="C20" s="3" t="n">
-        <f aca="false">ROUNDDOWN(B21+1,0)</f>
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="D20" s="1" t="n">
         <f aca="false">A20*B20</f>
-        <v>400</v>
+        <v>28</v>
       </c>
       <c r="E20" s="1" t="n">
         <f aca="false">A20*C20</f>
-        <v>365</v>
+        <v>29.75</v>
       </c>
       <c r="F20" s="4" t="str">
-        <f aca="false">"ResultRow("&amp;C20&amp;", "&amp;B20&amp;", "&amp;TEXT(A20,"0.00")&amp;","&amp;TEXT(E20,"0.00")&amp;","&amp;TEXT(D20,"0.00")&amp;"),"</f>
-        <v>ResultRow(73, 80, 5.00,365.00,400.00),</v>
-      </c>
+        <f aca="false">"ResultRow("""&amp;B20&amp;" ～ "&amp;C20&amp;""", """&amp;TEXT(A20,"0.00")&amp;""","""&amp;TEXT(D20,"0.00")&amp;" ～ "&amp;TEXT(E20,"0.00")&amp;"""),"</f>
+        <v>ResultRow("16 ～ 17", "1.75","28.00 ～ 29.75"),</v>
+      </c>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="B21" s="2" t="n">
+        <f aca="false">C20+1</f>
+        <v>18</v>
+      </c>
+      <c r="C21" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A21,0)</f>
-        <v>72</v>
-      </c>
-      <c r="C21" s="3" t="n">
-        <f aca="false">ROUNDDOWN(B22+1,0)</f>
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1" t="n">
         <f aca="false">A21*B21</f>
-        <v>396</v>
+        <v>27</v>
       </c>
       <c r="E21" s="1" t="n">
         <f aca="false">A21*C21</f>
-        <v>368.5</v>
+        <v>30</v>
       </c>
       <c r="F21" s="4" t="str">
-        <f aca="false">"ResultRow("&amp;C21&amp;", "&amp;B21&amp;", "&amp;TEXT(A21,"0.00")&amp;","&amp;TEXT(E21,"0.00")&amp;","&amp;TEXT(D21,"0.00")&amp;"),"</f>
-        <v>ResultRow(67, 72, 5.50,368.50,396.00),</v>
-      </c>
+        <f aca="false">"ResultRow("""&amp;B21&amp;" ～ "&amp;C21&amp;""", """&amp;TEXT(A21,"0.00")&amp;""","""&amp;TEXT(D21,"0.00")&amp;" ～ "&amp;TEXT(E21,"0.00")&amp;"""),"</f>
+        <v>ResultRow("18 ～ 20", "1.50","27.00 ～ 30.00"),</v>
+      </c>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>6</v>
+        <v>1.25</v>
       </c>
       <c r="B22" s="2" t="n">
+        <f aca="false">C21+1</f>
+        <v>21</v>
+      </c>
+      <c r="C22" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A22,0)</f>
-        <v>66</v>
-      </c>
-      <c r="C22" s="3" t="n">
-        <f aca="false">ROUNDDOWN(B23+1,0)</f>
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="D22" s="1" t="n">
         <f aca="false">A22*B22</f>
-        <v>396</v>
+        <v>26.25</v>
       </c>
       <c r="E22" s="1" t="n">
         <f aca="false">A22*C22</f>
-        <v>372</v>
+        <v>30</v>
       </c>
       <c r="F22" s="4" t="str">
-        <f aca="false">"ResultRow("&amp;C22&amp;", "&amp;B22&amp;", "&amp;TEXT(A22,"0.00")&amp;","&amp;TEXT(E22,"0.00")&amp;","&amp;TEXT(D22,"0.00")&amp;"),"</f>
-        <v>ResultRow(62, 66, 6.00,372.00,396.00),</v>
-      </c>
+        <f aca="false">"ResultRow("""&amp;B22&amp;" ～ "&amp;C22&amp;""", """&amp;TEXT(A22,"0.00")&amp;""","""&amp;TEXT(D22,"0.00")&amp;" ～ "&amp;TEXT(E22,"0.00")&amp;"""),"</f>
+        <v>ResultRow("21 ～ 24", "1.25","26.25 ～ 30.00"),</v>
+      </c>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>6.5</v>
+        <v>1</v>
       </c>
       <c r="B23" s="2" t="n">
+        <f aca="false">C22+1</f>
+        <v>25</v>
+      </c>
+      <c r="C23" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A23,0)</f>
-        <v>61</v>
-      </c>
-      <c r="C23" s="3" t="n">
-        <f aca="false">ROUNDDOWN(B24+1,0)</f>
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D23" s="1" t="n">
         <f aca="false">A23*B23</f>
-        <v>396.5</v>
+        <v>25</v>
       </c>
       <c r="E23" s="1" t="n">
         <f aca="false">A23*C23</f>
-        <v>377</v>
+        <v>30</v>
       </c>
       <c r="F23" s="4" t="str">
-        <f aca="false">"ResultRow("&amp;C23&amp;", "&amp;B23&amp;", "&amp;TEXT(A23,"0.00")&amp;","&amp;TEXT(E23,"0.00")&amp;","&amp;TEXT(D23,"0.00")&amp;"),"</f>
-        <v>ResultRow(58, 61, 6.50,377.00,396.50),</v>
-      </c>
+        <f aca="false">"ResultRow("""&amp;B23&amp;" ～ "&amp;C23&amp;""", """&amp;TEXT(A23,"0.00")&amp;""","""&amp;TEXT(D23,"0.00")&amp;" ～ "&amp;TEXT(E23,"0.00")&amp;"""),"</f>
+        <v>ResultRow("25 ～ 30", "1.00","25.00 ～ 30.00"),</v>
+      </c>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>7</v>
+        <v>0.75</v>
       </c>
       <c r="B24" s="2" t="n">
+        <f aca="false">C23+1</f>
+        <v>31</v>
+      </c>
+      <c r="C24" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A24,0)</f>
-        <v>57</v>
-      </c>
-      <c r="C24" s="3" t="n">
-        <f aca="false">ROUNDDOWN(B25+1,0)</f>
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D24" s="1" t="n">
         <f aca="false">A24*B24</f>
-        <v>399</v>
+        <v>23.25</v>
       </c>
       <c r="E24" s="1" t="n">
         <f aca="false">A24*C24</f>
-        <v>378</v>
+        <v>30</v>
       </c>
       <c r="F24" s="4" t="str">
-        <f aca="false">"ResultRow("&amp;C24&amp;", "&amp;B24&amp;", "&amp;TEXT(A24,"0.00")&amp;","&amp;TEXT(E24,"0.00")&amp;","&amp;TEXT(D24,"0.00")&amp;"),"</f>
-        <v>ResultRow(54, 57, 7.00,378.00,399.00),</v>
-      </c>
+        <f aca="false">"ResultRow("""&amp;B24&amp;" ～ "&amp;C24&amp;""", """&amp;TEXT(A24,"0.00")&amp;""","""&amp;TEXT(D24,"0.00")&amp;" ～ "&amp;TEXT(E24,"0.00")&amp;"""),"</f>
+        <v>ResultRow("31 ～ 40", "0.75","23.25 ～ 30.00"),</v>
+      </c>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>7.5</v>
+        <v>0.5</v>
       </c>
       <c r="B25" s="2" t="n">
+        <f aca="false">C24+1</f>
+        <v>41</v>
+      </c>
+      <c r="C25" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A25,0)</f>
-        <v>53</v>
-      </c>
-      <c r="C25" s="3" t="n">
-        <f aca="false">ROUNDDOWN(B26+1,0)</f>
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D25" s="1" t="n">
         <f aca="false">A25*B25</f>
-        <v>397.5</v>
+        <v>20.5</v>
       </c>
       <c r="E25" s="1" t="n">
         <f aca="false">A25*C25</f>
-        <v>382.5</v>
+        <v>30</v>
       </c>
       <c r="F25" s="4" t="str">
-        <f aca="false">"ResultRow("&amp;C25&amp;", "&amp;B25&amp;", "&amp;TEXT(A25,"0.00")&amp;","&amp;TEXT(E25,"0.00")&amp;","&amp;TEXT(D25,"0.00")&amp;"),"</f>
-        <v>ResultRow(51, 53, 7.50,382.50,397.50),</v>
-      </c>
+        <f aca="false">"ResultRow("""&amp;B25&amp;" ～ "&amp;C25&amp;""", """&amp;TEXT(A25,"0.00")&amp;""","""&amp;TEXT(D25,"0.00")&amp;" ～ "&amp;TEXT(E25,"0.00")&amp;"""),"</f>
+        <v>ResultRow("41 ～ 60", "0.50","20.50 ～ 30.00"),</v>
+      </c>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
-        <v>8</v>
+      <c r="A26" s="5" t="n">
+        <v>0.25</v>
       </c>
       <c r="B26" s="2" t="n">
+        <f aca="false">C25+1</f>
+        <v>61</v>
+      </c>
+      <c r="C26" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A26,0)</f>
-        <v>50</v>
-      </c>
-      <c r="C26" s="3" t="n">
-        <f aca="false">ROUNDDOWN(B27+1,0)</f>
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="D26" s="1" t="n">
         <f aca="false">A26*B26</f>
-        <v>400</v>
+        <v>15.25</v>
       </c>
       <c r="E26" s="1" t="n">
         <f aca="false">A26*C26</f>
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F26" s="4" t="str">
-        <f aca="false">"ResultRow("&amp;C26&amp;", "&amp;B26&amp;", "&amp;TEXT(A26,"0.00")&amp;","&amp;TEXT(E26,"0.00")&amp;","&amp;TEXT(D26,"0.00")&amp;"),"</f>
-        <v>ResultRow(1, 50, 8.00,8.00,400.00),</v>
-      </c>
+        <f aca="false">"ResultRow("""&amp;B26&amp;" ～ "&amp;C26&amp;""", """&amp;TEXT(A26,"0.00")&amp;""","""&amp;TEXT(D26,"0.00")&amp;" ～ "&amp;TEXT(E26,"0.00")&amp;"""),"</f>
+        <v>ResultRow("61 ～ 120", "0.25","15.25 ～ 30.00"),</v>
+      </c>
+      <c r="G26" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
@@ -2615,7 +2639,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F3:F26 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2638,7 +2662,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F3:F26 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/app/src/test/java/com/fias/ddrhighspeed/model/ResultRowSetFactoryTest用データ作成シート.xlsx
+++ b/app/src/test/java/com/fias/ddrhighspeed/model/ResultRowSetFactoryTest用データ作成シート.xlsx
@@ -144,7 +144,7 @@
   <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3:F26"/>
+      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -159,7 +159,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
-        <v>30</v>
+        <v>2000</v>
       </c>
       <c r="E1" s="1"/>
     </row>
@@ -176,7 +176,7 @@
       </c>
       <c r="C3" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A3,0)</f>
-        <v>3</v>
+        <v>250</v>
       </c>
       <c r="D3" s="1" t="n">
         <f aca="false">A3*B3</f>
@@ -184,11 +184,11 @@
       </c>
       <c r="E3" s="1" t="n">
         <f aca="false">A3*C3</f>
-        <v>24</v>
+        <v>2000</v>
       </c>
       <c r="F3" s="4" t="str">
-        <f aca="false">"ResultRow("""&amp;B3&amp;" ～ "&amp;C3&amp;""", """&amp;TEXT(A3,"0.00")&amp;""","""&amp;TEXT(D3,"0.00")&amp;" ～ "&amp;TEXT(E3,"0.00")&amp;"""),"</f>
-        <v>ResultRow("1 ～ 3", "8.00","8.00 ～ 24.00"),</v>
+        <f aca="false">"ResultRow("""&amp;B3&amp;" ～ "&amp;C3&amp;""", ""× "&amp;TEXT(A3,"0.00")&amp;""",""= "&amp;TEXT(D3,"0.00")&amp;" ～ "&amp;TEXT(E3,"0.00")&amp;"""),"</f>
+        <v>ResultRow("1 ～ 250", "× 8.00","= 8.00 ～ 2000.00"),</v>
       </c>
       <c r="G3" s="4"/>
     </row>
@@ -198,23 +198,23 @@
       </c>
       <c r="B4" s="2" t="n">
         <f aca="false">C3+1</f>
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="C4" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A4,0)</f>
-        <v>4</v>
+        <v>266</v>
       </c>
       <c r="D4" s="1" t="n">
         <f aca="false">A4*B4</f>
-        <v>30</v>
+        <v>1882.5</v>
       </c>
       <c r="E4" s="1" t="n">
         <f aca="false">A4*C4</f>
-        <v>30</v>
+        <v>1995</v>
       </c>
       <c r="F4" s="4" t="str">
-        <f aca="false">"ResultRow("""&amp;B4&amp;" ～ "&amp;C4&amp;""", """&amp;TEXT(A4,"0.00")&amp;""","""&amp;TEXT(D4,"0.00")&amp;" ～ "&amp;TEXT(E4,"0.00")&amp;"""),"</f>
-        <v>ResultRow("4 ～ 4", "7.50","30.00 ～ 30.00"),</v>
+        <f aca="false">"ResultRow("""&amp;B4&amp;" ～ "&amp;C4&amp;""", ""× "&amp;TEXT(A4,"0.00")&amp;""",""= "&amp;TEXT(D4,"0.00")&amp;" ～ "&amp;TEXT(E4,"0.00")&amp;"""),"</f>
+        <v>ResultRow("251 ～ 266", "× 7.50","= 1882.50 ～ 1995.00"),</v>
       </c>
       <c r="G4" s="4"/>
     </row>
@@ -224,23 +224,23 @@
       </c>
       <c r="B5" s="2" t="n">
         <f aca="false">C4+1</f>
-        <v>5</v>
+        <v>267</v>
       </c>
       <c r="C5" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A5,0)</f>
-        <v>4</v>
+        <v>285</v>
       </c>
       <c r="D5" s="1" t="n">
         <f aca="false">A5*B5</f>
-        <v>35</v>
+        <v>1869</v>
       </c>
       <c r="E5" s="1" t="n">
         <f aca="false">A5*C5</f>
-        <v>28</v>
+        <v>1995</v>
       </c>
       <c r="F5" s="4" t="str">
-        <f aca="false">"ResultRow("""&amp;B5&amp;" ～ "&amp;C5&amp;""", """&amp;TEXT(A5,"0.00")&amp;""","""&amp;TEXT(D5,"0.00")&amp;" ～ "&amp;TEXT(E5,"0.00")&amp;"""),"</f>
-        <v>ResultRow("5 ～ 4", "7.00","35.00 ～ 28.00"),</v>
+        <f aca="false">"ResultRow("""&amp;B5&amp;" ～ "&amp;C5&amp;""", ""× "&amp;TEXT(A5,"0.00")&amp;""",""= "&amp;TEXT(D5,"0.00")&amp;" ～ "&amp;TEXT(E5,"0.00")&amp;"""),"</f>
+        <v>ResultRow("267 ～ 285", "× 7.00","= 1869.00 ～ 1995.00"),</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -250,23 +250,23 @@
       </c>
       <c r="B6" s="2" t="n">
         <f aca="false">C5+1</f>
-        <v>5</v>
+        <v>286</v>
       </c>
       <c r="C6" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A6,0)</f>
-        <v>4</v>
+        <v>307</v>
       </c>
       <c r="D6" s="1" t="n">
         <f aca="false">A6*B6</f>
-        <v>32.5</v>
+        <v>1859</v>
       </c>
       <c r="E6" s="1" t="n">
         <f aca="false">A6*C6</f>
-        <v>26</v>
+        <v>1995.5</v>
       </c>
       <c r="F6" s="4" t="str">
-        <f aca="false">"ResultRow("""&amp;B6&amp;" ～ "&amp;C6&amp;""", """&amp;TEXT(A6,"0.00")&amp;""","""&amp;TEXT(D6,"0.00")&amp;" ～ "&amp;TEXT(E6,"0.00")&amp;"""),"</f>
-        <v>ResultRow("5 ～ 4", "6.50","32.50 ～ 26.00"),</v>
+        <f aca="false">"ResultRow("""&amp;B6&amp;" ～ "&amp;C6&amp;""", ""× "&amp;TEXT(A6,"0.00")&amp;""",""= "&amp;TEXT(D6,"0.00")&amp;" ～ "&amp;TEXT(E6,"0.00")&amp;"""),"</f>
+        <v>ResultRow("286 ～ 307", "× 6.50","= 1859.00 ～ 1995.50"),</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -276,23 +276,23 @@
       </c>
       <c r="B7" s="2" t="n">
         <f aca="false">C6+1</f>
-        <v>5</v>
+        <v>308</v>
       </c>
       <c r="C7" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A7,0)</f>
-        <v>5</v>
+        <v>333</v>
       </c>
       <c r="D7" s="1" t="n">
         <f aca="false">A7*B7</f>
-        <v>30</v>
+        <v>1848</v>
       </c>
       <c r="E7" s="1" t="n">
         <f aca="false">A7*C7</f>
-        <v>30</v>
+        <v>1998</v>
       </c>
       <c r="F7" s="4" t="str">
-        <f aca="false">"ResultRow("""&amp;B7&amp;" ～ "&amp;C7&amp;""", """&amp;TEXT(A7,"0.00")&amp;""","""&amp;TEXT(D7,"0.00")&amp;" ～ "&amp;TEXT(E7,"0.00")&amp;"""),"</f>
-        <v>ResultRow("5 ～ 5", "6.00","30.00 ～ 30.00"),</v>
+        <f aca="false">"ResultRow("""&amp;B7&amp;" ～ "&amp;C7&amp;""", ""× "&amp;TEXT(A7,"0.00")&amp;""",""= "&amp;TEXT(D7,"0.00")&amp;" ～ "&amp;TEXT(E7,"0.00")&amp;"""),"</f>
+        <v>ResultRow("308 ～ 333", "× 6.00","= 1848.00 ～ 1998.00"),</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -302,23 +302,23 @@
       </c>
       <c r="B8" s="2" t="n">
         <f aca="false">C7+1</f>
-        <v>6</v>
+        <v>334</v>
       </c>
       <c r="C8" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A8,0)</f>
-        <v>5</v>
+        <v>363</v>
       </c>
       <c r="D8" s="1" t="n">
         <f aca="false">A8*B8</f>
-        <v>33</v>
+        <v>1837</v>
       </c>
       <c r="E8" s="1" t="n">
         <f aca="false">A8*C8</f>
-        <v>27.5</v>
+        <v>1996.5</v>
       </c>
       <c r="F8" s="4" t="str">
-        <f aca="false">"ResultRow("""&amp;B8&amp;" ～ "&amp;C8&amp;""", """&amp;TEXT(A8,"0.00")&amp;""","""&amp;TEXT(D8,"0.00")&amp;" ～ "&amp;TEXT(E8,"0.00")&amp;"""),"</f>
-        <v>ResultRow("6 ～ 5", "5.50","33.00 ～ 27.50"),</v>
+        <f aca="false">"ResultRow("""&amp;B8&amp;" ～ "&amp;C8&amp;""", ""× "&amp;TEXT(A8,"0.00")&amp;""",""= "&amp;TEXT(D8,"0.00")&amp;" ～ "&amp;TEXT(E8,"0.00")&amp;"""),"</f>
+        <v>ResultRow("334 ～ 363", "× 5.50","= 1837.00 ～ 1996.50"),</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -328,23 +328,23 @@
       </c>
       <c r="B9" s="2" t="n">
         <f aca="false">C8+1</f>
-        <v>6</v>
+        <v>364</v>
       </c>
       <c r="C9" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A9,0)</f>
-        <v>6</v>
+        <v>400</v>
       </c>
       <c r="D9" s="1" t="n">
         <f aca="false">A9*B9</f>
-        <v>30</v>
+        <v>1820</v>
       </c>
       <c r="E9" s="1" t="n">
         <f aca="false">A9*C9</f>
-        <v>30</v>
+        <v>2000</v>
       </c>
       <c r="F9" s="4" t="str">
-        <f aca="false">"ResultRow("""&amp;B9&amp;" ～ "&amp;C9&amp;""", """&amp;TEXT(A9,"0.00")&amp;""","""&amp;TEXT(D9,"0.00")&amp;" ～ "&amp;TEXT(E9,"0.00")&amp;"""),"</f>
-        <v>ResultRow("6 ～ 6", "5.00","30.00 ～ 30.00"),</v>
+        <f aca="false">"ResultRow("""&amp;B9&amp;" ～ "&amp;C9&amp;""", ""× "&amp;TEXT(A9,"0.00")&amp;""",""= "&amp;TEXT(D9,"0.00")&amp;" ～ "&amp;TEXT(E9,"0.00")&amp;"""),"</f>
+        <v>ResultRow("364 ～ 400", "× 5.00","= 1820.00 ～ 2000.00"),</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -354,23 +354,23 @@
       </c>
       <c r="B10" s="2" t="n">
         <f aca="false">C9+1</f>
-        <v>7</v>
+        <v>401</v>
       </c>
       <c r="C10" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A10,0)</f>
-        <v>6</v>
+        <v>444</v>
       </c>
       <c r="D10" s="1" t="n">
         <f aca="false">A10*B10</f>
-        <v>31.5</v>
+        <v>1804.5</v>
       </c>
       <c r="E10" s="1" t="n">
         <f aca="false">A10*C10</f>
-        <v>27</v>
+        <v>1998</v>
       </c>
       <c r="F10" s="4" t="str">
-        <f aca="false">"ResultRow("""&amp;B10&amp;" ～ "&amp;C10&amp;""", """&amp;TEXT(A10,"0.00")&amp;""","""&amp;TEXT(D10,"0.00")&amp;" ～ "&amp;TEXT(E10,"0.00")&amp;"""),"</f>
-        <v>ResultRow("7 ～ 6", "4.50","31.50 ～ 27.00"),</v>
+        <f aca="false">"ResultRow("""&amp;B10&amp;" ～ "&amp;C10&amp;""", ""× "&amp;TEXT(A10,"0.00")&amp;""",""= "&amp;TEXT(D10,"0.00")&amp;" ～ "&amp;TEXT(E10,"0.00")&amp;"""),"</f>
+        <v>ResultRow("401 ～ 444", "× 4.50","= 1804.50 ～ 1998.00"),</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -380,23 +380,23 @@
       </c>
       <c r="B11" s="2" t="n">
         <f aca="false">C10+1</f>
-        <v>7</v>
+        <v>445</v>
       </c>
       <c r="C11" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A11,0)</f>
-        <v>7</v>
+        <v>500</v>
       </c>
       <c r="D11" s="1" t="n">
         <f aca="false">A11*B11</f>
-        <v>28</v>
+        <v>1780</v>
       </c>
       <c r="E11" s="1" t="n">
         <f aca="false">A11*C11</f>
-        <v>28</v>
+        <v>2000</v>
       </c>
       <c r="F11" s="4" t="str">
-        <f aca="false">"ResultRow("""&amp;B11&amp;" ～ "&amp;C11&amp;""", """&amp;TEXT(A11,"0.00")&amp;""","""&amp;TEXT(D11,"0.00")&amp;" ～ "&amp;TEXT(E11,"0.00")&amp;"""),"</f>
-        <v>ResultRow("7 ～ 7", "4.00","28.00 ～ 28.00"),</v>
+        <f aca="false">"ResultRow("""&amp;B11&amp;" ～ "&amp;C11&amp;""", ""× "&amp;TEXT(A11,"0.00")&amp;""",""= "&amp;TEXT(D11,"0.00")&amp;" ～ "&amp;TEXT(E11,"0.00")&amp;"""),"</f>
+        <v>ResultRow("445 ～ 500", "× 4.00","= 1780.00 ～ 2000.00"),</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -406,23 +406,23 @@
       </c>
       <c r="B12" s="2" t="n">
         <f aca="false">C11+1</f>
-        <v>8</v>
+        <v>501</v>
       </c>
       <c r="C12" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A12,0)</f>
-        <v>8</v>
+        <v>533</v>
       </c>
       <c r="D12" s="1" t="n">
         <f aca="false">A12*B12</f>
-        <v>30</v>
+        <v>1878.75</v>
       </c>
       <c r="E12" s="1" t="n">
         <f aca="false">A12*C12</f>
-        <v>30</v>
+        <v>1998.75</v>
       </c>
       <c r="F12" s="4" t="str">
-        <f aca="false">"ResultRow("""&amp;B12&amp;" ～ "&amp;C12&amp;""", """&amp;TEXT(A12,"0.00")&amp;""","""&amp;TEXT(D12,"0.00")&amp;" ～ "&amp;TEXT(E12,"0.00")&amp;"""),"</f>
-        <v>ResultRow("8 ～ 8", "3.75","30.00 ～ 30.00"),</v>
+        <f aca="false">"ResultRow("""&amp;B12&amp;" ～ "&amp;C12&amp;""", ""× "&amp;TEXT(A12,"0.00")&amp;""",""= "&amp;TEXT(D12,"0.00")&amp;" ～ "&amp;TEXT(E12,"0.00")&amp;"""),"</f>
+        <v>ResultRow("501 ～ 533", "× 3.75","= 1878.75 ～ 1998.75"),</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -432,23 +432,23 @@
       </c>
       <c r="B13" s="2" t="n">
         <f aca="false">C12+1</f>
-        <v>9</v>
+        <v>534</v>
       </c>
       <c r="C13" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A13,0)</f>
-        <v>8</v>
+        <v>571</v>
       </c>
       <c r="D13" s="1" t="n">
         <f aca="false">A13*B13</f>
-        <v>31.5</v>
+        <v>1869</v>
       </c>
       <c r="E13" s="1" t="n">
         <f aca="false">A13*C13</f>
-        <v>28</v>
+        <v>1998.5</v>
       </c>
       <c r="F13" s="4" t="str">
-        <f aca="false">"ResultRow("""&amp;B13&amp;" ～ "&amp;C13&amp;""", """&amp;TEXT(A13,"0.00")&amp;""","""&amp;TEXT(D13,"0.00")&amp;" ～ "&amp;TEXT(E13,"0.00")&amp;"""),"</f>
-        <v>ResultRow("9 ～ 8", "3.50","31.50 ～ 28.00"),</v>
+        <f aca="false">"ResultRow("""&amp;B13&amp;" ～ "&amp;C13&amp;""", ""× "&amp;TEXT(A13,"0.00")&amp;""",""= "&amp;TEXT(D13,"0.00")&amp;" ～ "&amp;TEXT(E13,"0.00")&amp;"""),"</f>
+        <v>ResultRow("534 ～ 571", "× 3.50","= 1869.00 ～ 1998.50"),</v>
       </c>
       <c r="G13" s="4"/>
     </row>
@@ -458,23 +458,23 @@
       </c>
       <c r="B14" s="2" t="n">
         <f aca="false">C13+1</f>
-        <v>9</v>
+        <v>572</v>
       </c>
       <c r="C14" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A14,0)</f>
-        <v>9</v>
+        <v>615</v>
       </c>
       <c r="D14" s="1" t="n">
         <f aca="false">A14*B14</f>
-        <v>29.25</v>
+        <v>1859</v>
       </c>
       <c r="E14" s="1" t="n">
         <f aca="false">A14*C14</f>
-        <v>29.25</v>
+        <v>1998.75</v>
       </c>
       <c r="F14" s="4" t="str">
-        <f aca="false">"ResultRow("""&amp;B14&amp;" ～ "&amp;C14&amp;""", """&amp;TEXT(A14,"0.00")&amp;""","""&amp;TEXT(D14,"0.00")&amp;" ～ "&amp;TEXT(E14,"0.00")&amp;"""),"</f>
-        <v>ResultRow("9 ～ 9", "3.25","29.25 ～ 29.25"),</v>
+        <f aca="false">"ResultRow("""&amp;B14&amp;" ～ "&amp;C14&amp;""", ""× "&amp;TEXT(A14,"0.00")&amp;""",""= "&amp;TEXT(D14,"0.00")&amp;" ～ "&amp;TEXT(E14,"0.00")&amp;"""),"</f>
+        <v>ResultRow("572 ～ 615", "× 3.25","= 1859.00 ～ 1998.75"),</v>
       </c>
       <c r="G14" s="4"/>
     </row>
@@ -484,23 +484,23 @@
       </c>
       <c r="B15" s="2" t="n">
         <f aca="false">C14+1</f>
-        <v>10</v>
+        <v>616</v>
       </c>
       <c r="C15" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A15,0)</f>
-        <v>10</v>
+        <v>666</v>
       </c>
       <c r="D15" s="1" t="n">
         <f aca="false">A15*B15</f>
-        <v>30</v>
+        <v>1848</v>
       </c>
       <c r="E15" s="1" t="n">
         <f aca="false">A15*C15</f>
-        <v>30</v>
+        <v>1998</v>
       </c>
       <c r="F15" s="4" t="str">
-        <f aca="false">"ResultRow("""&amp;B15&amp;" ～ "&amp;C15&amp;""", """&amp;TEXT(A15,"0.00")&amp;""","""&amp;TEXT(D15,"0.00")&amp;" ～ "&amp;TEXT(E15,"0.00")&amp;"""),"</f>
-        <v>ResultRow("10 ～ 10", "3.00","30.00 ～ 30.00"),</v>
+        <f aca="false">"ResultRow("""&amp;B15&amp;" ～ "&amp;C15&amp;""", ""× "&amp;TEXT(A15,"0.00")&amp;""",""= "&amp;TEXT(D15,"0.00")&amp;" ～ "&amp;TEXT(E15,"0.00")&amp;"""),"</f>
+        <v>ResultRow("616 ～ 666", "× 3.00","= 1848.00 ～ 1998.00"),</v>
       </c>
       <c r="G15" s="4"/>
     </row>
@@ -510,23 +510,23 @@
       </c>
       <c r="B16" s="2" t="n">
         <f aca="false">C15+1</f>
-        <v>11</v>
+        <v>667</v>
       </c>
       <c r="C16" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A16,0)</f>
-        <v>10</v>
+        <v>727</v>
       </c>
       <c r="D16" s="1" t="n">
         <f aca="false">A16*B16</f>
-        <v>30.25</v>
+        <v>1834.25</v>
       </c>
       <c r="E16" s="1" t="n">
         <f aca="false">A16*C16</f>
-        <v>27.5</v>
+        <v>1999.25</v>
       </c>
       <c r="F16" s="4" t="str">
-        <f aca="false">"ResultRow("""&amp;B16&amp;" ～ "&amp;C16&amp;""", """&amp;TEXT(A16,"0.00")&amp;""","""&amp;TEXT(D16,"0.00")&amp;" ～ "&amp;TEXT(E16,"0.00")&amp;"""),"</f>
-        <v>ResultRow("11 ～ 10", "2.75","30.25 ～ 27.50"),</v>
+        <f aca="false">"ResultRow("""&amp;B16&amp;" ～ "&amp;C16&amp;""", ""× "&amp;TEXT(A16,"0.00")&amp;""",""= "&amp;TEXT(D16,"0.00")&amp;" ～ "&amp;TEXT(E16,"0.00")&amp;"""),"</f>
+        <v>ResultRow("667 ～ 727", "× 2.75","= 1834.25 ～ 1999.25"),</v>
       </c>
       <c r="G16" s="4"/>
     </row>
@@ -536,23 +536,23 @@
       </c>
       <c r="B17" s="2" t="n">
         <f aca="false">C16+1</f>
-        <v>11</v>
+        <v>728</v>
       </c>
       <c r="C17" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A17,0)</f>
-        <v>12</v>
+        <v>800</v>
       </c>
       <c r="D17" s="1" t="n">
         <f aca="false">A17*B17</f>
-        <v>27.5</v>
+        <v>1820</v>
       </c>
       <c r="E17" s="1" t="n">
         <f aca="false">A17*C17</f>
-        <v>30</v>
+        <v>2000</v>
       </c>
       <c r="F17" s="4" t="str">
-        <f aca="false">"ResultRow("""&amp;B17&amp;" ～ "&amp;C17&amp;""", """&amp;TEXT(A17,"0.00")&amp;""","""&amp;TEXT(D17,"0.00")&amp;" ～ "&amp;TEXT(E17,"0.00")&amp;"""),"</f>
-        <v>ResultRow("11 ～ 12", "2.50","27.50 ～ 30.00"),</v>
+        <f aca="false">"ResultRow("""&amp;B17&amp;" ～ "&amp;C17&amp;""", ""× "&amp;TEXT(A17,"0.00")&amp;""",""= "&amp;TEXT(D17,"0.00")&amp;" ～ "&amp;TEXT(E17,"0.00")&amp;"""),"</f>
+        <v>ResultRow("728 ～ 800", "× 2.50","= 1820.00 ～ 2000.00"),</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -562,23 +562,23 @@
       </c>
       <c r="B18" s="2" t="n">
         <f aca="false">C17+1</f>
-        <v>13</v>
+        <v>801</v>
       </c>
       <c r="C18" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A18,0)</f>
-        <v>13</v>
+        <v>888</v>
       </c>
       <c r="D18" s="1" t="n">
         <f aca="false">A18*B18</f>
-        <v>29.25</v>
+        <v>1802.25</v>
       </c>
       <c r="E18" s="1" t="n">
         <f aca="false">A18*C18</f>
-        <v>29.25</v>
+        <v>1998</v>
       </c>
       <c r="F18" s="4" t="str">
-        <f aca="false">"ResultRow("""&amp;B18&amp;" ～ "&amp;C18&amp;""", """&amp;TEXT(A18,"0.00")&amp;""","""&amp;TEXT(D18,"0.00")&amp;" ～ "&amp;TEXT(E18,"0.00")&amp;"""),"</f>
-        <v>ResultRow("13 ～ 13", "2.25","29.25 ～ 29.25"),</v>
+        <f aca="false">"ResultRow("""&amp;B18&amp;" ～ "&amp;C18&amp;""", ""× "&amp;TEXT(A18,"0.00")&amp;""",""= "&amp;TEXT(D18,"0.00")&amp;" ～ "&amp;TEXT(E18,"0.00")&amp;"""),"</f>
+        <v>ResultRow("801 ～ 888", "× 2.25","= 1802.25 ～ 1998.00"),</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -588,23 +588,23 @@
       </c>
       <c r="B19" s="2" t="n">
         <f aca="false">C18+1</f>
-        <v>14</v>
+        <v>889</v>
       </c>
       <c r="C19" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A19,0)</f>
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="D19" s="1" t="n">
         <f aca="false">A19*B19</f>
-        <v>28</v>
+        <v>1778</v>
       </c>
       <c r="E19" s="1" t="n">
         <f aca="false">A19*C19</f>
-        <v>30</v>
+        <v>2000</v>
       </c>
       <c r="F19" s="4" t="str">
-        <f aca="false">"ResultRow("""&amp;B19&amp;" ～ "&amp;C19&amp;""", """&amp;TEXT(A19,"0.00")&amp;""","""&amp;TEXT(D19,"0.00")&amp;" ～ "&amp;TEXT(E19,"0.00")&amp;"""),"</f>
-        <v>ResultRow("14 ～ 15", "2.00","28.00 ～ 30.00"),</v>
+        <f aca="false">"ResultRow("""&amp;B19&amp;" ～ "&amp;C19&amp;""", ""× "&amp;TEXT(A19,"0.00")&amp;""",""= "&amp;TEXT(D19,"0.00")&amp;" ～ "&amp;TEXT(E19,"0.00")&amp;"""),"</f>
+        <v>ResultRow("889 ～ 1000", "× 2.00","= 1778.00 ～ 2000.00"),</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -614,23 +614,23 @@
       </c>
       <c r="B20" s="2" t="n">
         <f aca="false">C19+1</f>
-        <v>16</v>
+        <v>1001</v>
       </c>
       <c r="C20" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A20,0)</f>
-        <v>17</v>
+        <v>1142</v>
       </c>
       <c r="D20" s="1" t="n">
         <f aca="false">A20*B20</f>
-        <v>28</v>
+        <v>1751.75</v>
       </c>
       <c r="E20" s="1" t="n">
         <f aca="false">A20*C20</f>
-        <v>29.75</v>
+        <v>1998.5</v>
       </c>
       <c r="F20" s="4" t="str">
-        <f aca="false">"ResultRow("""&amp;B20&amp;" ～ "&amp;C20&amp;""", """&amp;TEXT(A20,"0.00")&amp;""","""&amp;TEXT(D20,"0.00")&amp;" ～ "&amp;TEXT(E20,"0.00")&amp;"""),"</f>
-        <v>ResultRow("16 ～ 17", "1.75","28.00 ～ 29.75"),</v>
+        <f aca="false">"ResultRow("""&amp;B20&amp;" ～ "&amp;C20&amp;""", ""× "&amp;TEXT(A20,"0.00")&amp;""",""= "&amp;TEXT(D20,"0.00")&amp;" ～ "&amp;TEXT(E20,"0.00")&amp;"""),"</f>
+        <v>ResultRow("1001 ～ 1142", "× 1.75","= 1751.75 ～ 1998.50"),</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -640,23 +640,23 @@
       </c>
       <c r="B21" s="2" t="n">
         <f aca="false">C20+1</f>
-        <v>18</v>
+        <v>1143</v>
       </c>
       <c r="C21" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A21,0)</f>
-        <v>20</v>
+        <v>1333</v>
       </c>
       <c r="D21" s="1" t="n">
         <f aca="false">A21*B21</f>
-        <v>27</v>
+        <v>1714.5</v>
       </c>
       <c r="E21" s="1" t="n">
         <f aca="false">A21*C21</f>
-        <v>30</v>
+        <v>1999.5</v>
       </c>
       <c r="F21" s="4" t="str">
-        <f aca="false">"ResultRow("""&amp;B21&amp;" ～ "&amp;C21&amp;""", """&amp;TEXT(A21,"0.00")&amp;""","""&amp;TEXT(D21,"0.00")&amp;" ～ "&amp;TEXT(E21,"0.00")&amp;"""),"</f>
-        <v>ResultRow("18 ～ 20", "1.50","27.00 ～ 30.00"),</v>
+        <f aca="false">"ResultRow("""&amp;B21&amp;" ～ "&amp;C21&amp;""", ""× "&amp;TEXT(A21,"0.00")&amp;""",""= "&amp;TEXT(D21,"0.00")&amp;" ～ "&amp;TEXT(E21,"0.00")&amp;"""),"</f>
+        <v>ResultRow("1143 ～ 1333", "× 1.50","= 1714.50 ～ 1999.50"),</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -666,23 +666,23 @@
       </c>
       <c r="B22" s="2" t="n">
         <f aca="false">C21+1</f>
-        <v>21</v>
+        <v>1334</v>
       </c>
       <c r="C22" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A22,0)</f>
-        <v>24</v>
+        <v>1600</v>
       </c>
       <c r="D22" s="1" t="n">
         <f aca="false">A22*B22</f>
-        <v>26.25</v>
+        <v>1667.5</v>
       </c>
       <c r="E22" s="1" t="n">
         <f aca="false">A22*C22</f>
-        <v>30</v>
+        <v>2000</v>
       </c>
       <c r="F22" s="4" t="str">
-        <f aca="false">"ResultRow("""&amp;B22&amp;" ～ "&amp;C22&amp;""", """&amp;TEXT(A22,"0.00")&amp;""","""&amp;TEXT(D22,"0.00")&amp;" ～ "&amp;TEXT(E22,"0.00")&amp;"""),"</f>
-        <v>ResultRow("21 ～ 24", "1.25","26.25 ～ 30.00"),</v>
+        <f aca="false">"ResultRow("""&amp;B22&amp;" ～ "&amp;C22&amp;""", ""× "&amp;TEXT(A22,"0.00")&amp;""",""= "&amp;TEXT(D22,"0.00")&amp;" ～ "&amp;TEXT(E22,"0.00")&amp;"""),"</f>
+        <v>ResultRow("1334 ～ 1600", "× 1.25","= 1667.50 ～ 2000.00"),</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -692,23 +692,23 @@
       </c>
       <c r="B23" s="2" t="n">
         <f aca="false">C22+1</f>
-        <v>25</v>
+        <v>1601</v>
       </c>
       <c r="C23" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A23,0)</f>
-        <v>30</v>
+        <v>2000</v>
       </c>
       <c r="D23" s="1" t="n">
         <f aca="false">A23*B23</f>
-        <v>25</v>
+        <v>1601</v>
       </c>
       <c r="E23" s="1" t="n">
         <f aca="false">A23*C23</f>
-        <v>30</v>
+        <v>2000</v>
       </c>
       <c r="F23" s="4" t="str">
-        <f aca="false">"ResultRow("""&amp;B23&amp;" ～ "&amp;C23&amp;""", """&amp;TEXT(A23,"0.00")&amp;""","""&amp;TEXT(D23,"0.00")&amp;" ～ "&amp;TEXT(E23,"0.00")&amp;"""),"</f>
-        <v>ResultRow("25 ～ 30", "1.00","25.00 ～ 30.00"),</v>
+        <f aca="false">"ResultRow("""&amp;B23&amp;" ～ "&amp;C23&amp;""", ""× "&amp;TEXT(A23,"0.00")&amp;""",""= "&amp;TEXT(D23,"0.00")&amp;" ～ "&amp;TEXT(E23,"0.00")&amp;"""),"</f>
+        <v>ResultRow("1601 ～ 2000", "× 1.00","= 1601.00 ～ 2000.00"),</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -718,23 +718,23 @@
       </c>
       <c r="B24" s="2" t="n">
         <f aca="false">C23+1</f>
-        <v>31</v>
+        <v>2001</v>
       </c>
       <c r="C24" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A24,0)</f>
-        <v>40</v>
+        <v>2666</v>
       </c>
       <c r="D24" s="1" t="n">
         <f aca="false">A24*B24</f>
-        <v>23.25</v>
+        <v>1500.75</v>
       </c>
       <c r="E24" s="1" t="n">
         <f aca="false">A24*C24</f>
-        <v>30</v>
+        <v>1999.5</v>
       </c>
       <c r="F24" s="4" t="str">
-        <f aca="false">"ResultRow("""&amp;B24&amp;" ～ "&amp;C24&amp;""", """&amp;TEXT(A24,"0.00")&amp;""","""&amp;TEXT(D24,"0.00")&amp;" ～ "&amp;TEXT(E24,"0.00")&amp;"""),"</f>
-        <v>ResultRow("31 ～ 40", "0.75","23.25 ～ 30.00"),</v>
+        <f aca="false">"ResultRow("""&amp;B24&amp;" ～ "&amp;C24&amp;""", ""× "&amp;TEXT(A24,"0.00")&amp;""",""= "&amp;TEXT(D24,"0.00")&amp;" ～ "&amp;TEXT(E24,"0.00")&amp;"""),"</f>
+        <v>ResultRow("2001 ～ 2666", "× 0.75","= 1500.75 ～ 1999.50"),</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -744,23 +744,23 @@
       </c>
       <c r="B25" s="2" t="n">
         <f aca="false">C24+1</f>
-        <v>41</v>
+        <v>2667</v>
       </c>
       <c r="C25" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A25,0)</f>
-        <v>60</v>
+        <v>4000</v>
       </c>
       <c r="D25" s="1" t="n">
         <f aca="false">A25*B25</f>
-        <v>20.5</v>
+        <v>1333.5</v>
       </c>
       <c r="E25" s="1" t="n">
         <f aca="false">A25*C25</f>
-        <v>30</v>
+        <v>2000</v>
       </c>
       <c r="F25" s="4" t="str">
-        <f aca="false">"ResultRow("""&amp;B25&amp;" ～ "&amp;C25&amp;""", """&amp;TEXT(A25,"0.00")&amp;""","""&amp;TEXT(D25,"0.00")&amp;" ～ "&amp;TEXT(E25,"0.00")&amp;"""),"</f>
-        <v>ResultRow("41 ～ 60", "0.50","20.50 ～ 30.00"),</v>
+        <f aca="false">"ResultRow("""&amp;B25&amp;" ～ "&amp;C25&amp;""", ""× "&amp;TEXT(A25,"0.00")&amp;""",""= "&amp;TEXT(D25,"0.00")&amp;" ～ "&amp;TEXT(E25,"0.00")&amp;"""),"</f>
+        <v>ResultRow("2667 ～ 4000", "× 0.50","= 1333.50 ～ 2000.00"),</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -770,23 +770,23 @@
       </c>
       <c r="B26" s="2" t="n">
         <f aca="false">C25+1</f>
-        <v>61</v>
+        <v>4001</v>
       </c>
       <c r="C26" s="3" t="n">
         <f aca="false">ROUNDDOWN($A$1/A26,0)</f>
-        <v>120</v>
+        <v>8000</v>
       </c>
       <c r="D26" s="1" t="n">
         <f aca="false">A26*B26</f>
-        <v>15.25</v>
+        <v>1000.25</v>
       </c>
       <c r="E26" s="1" t="n">
         <f aca="false">A26*C26</f>
-        <v>30</v>
+        <v>2000</v>
       </c>
       <c r="F26" s="4" t="str">
-        <f aca="false">"ResultRow("""&amp;B26&amp;" ～ "&amp;C26&amp;""", """&amp;TEXT(A26,"0.00")&amp;""","""&amp;TEXT(D26,"0.00")&amp;" ～ "&amp;TEXT(E26,"0.00")&amp;"""),"</f>
-        <v>ResultRow("61 ～ 120", "0.25","15.25 ～ 30.00"),</v>
+        <f aca="false">"ResultRow("""&amp;B26&amp;" ～ "&amp;C26&amp;""", ""× "&amp;TEXT(A26,"0.00")&amp;""",""= "&amp;TEXT(D26,"0.00")&amp;" ～ "&amp;TEXT(E26,"0.00")&amp;"""),"</f>
+        <v>ResultRow("4001 ～ 8000", "× 0.25","= 1000.25 ～ 2000.00"),</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -2639,7 +2639,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F3:F26 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2662,7 +2662,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F3:F26 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
